--- a/Desarrollo/DCS-CP.xlsx
+++ b/Desarrollo/DCS-CP.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/953b61fab7c940fc/Escritorio/G6-DCS/Desarrollo/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_9F48A1863C09740F8ED119B4C452F0614A9C5C45" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8568313-277B-4914-89FD-E6BD402EEA2C}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -18,26 +27,26 @@
   <si>
     <r>
       <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
         <rFont val="&quot;Bebas Neue&quot;, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="14.0"/>
       </rPr>
       <t>Ruta del repositorio Github:</t>
     </r>
     <r>
       <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
         <rFont val="&quot;Bebas Neue&quot;, Arial"/>
-        <color rgb="FFFF0000"/>
-        <sz val="14.0"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF1155CC"/>
         <rFont val="&quot;Bebas Neue&quot;, Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="14.0"/>
-        <u/>
       </rPr>
       <t>https://github.com/AngelC32/G6-DCS</t>
     </r>
@@ -299,89 +308,114 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="18">
-    <font>
-      <sz val="10.0"/>
+  <fonts count="21">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FFE69138"/>
       <name val="Montserrat"/>
     </font>
-    <font/>
-    <font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="&quot;Bebas Neue&quot;"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="&quot;Bebas Neue&quot;"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <name val="&quot;Bebas Neue&quot;"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FFFFFFFF"/>
       <name val="&quot;Bebas Neue&quot;"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF060606"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Bebas Neue&quot;, Arial"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="&quot;Bebas Neue&quot;, Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FF1155CC"/>
+      <name val="&quot;Bebas Neue&quot;, Arial"/>
     </font>
   </fonts>
   <fills count="7">
@@ -389,7 +423,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -423,27 +457,39 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -453,6 +499,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -467,177 +514,135 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="53">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="10" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="13" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="4" fillId="6" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="13" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="10" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="15" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="4" fillId="6" fontId="11" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="10" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="11" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="10" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -827,667 +832,672 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="61.71"/>
-    <col customWidth="1" min="3" max="3" width="44.0"/>
-    <col customWidth="1" min="4" max="5" width="30.0"/>
-    <col customWidth="1" min="8" max="8" width="16.86"/>
+    <col min="2" max="2" width="61.7109375" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
+    <col min="4" max="5" width="30" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="23.25">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="A2" s="1"/>
+      <c r="B2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="7" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="18">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8">
-        <v>6.0</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="7" t="s">
+      <c r="C3" s="4">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="7" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="18">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="7" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="18">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4"/>
-      <c r="B7" s="7" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="18">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11">
-        <v>44482.0</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="4"/>
-      <c r="B8" s="7" t="s">
+      <c r="C7" s="7">
+        <v>44482</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="18">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="11">
-        <v>44571.0</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="4"/>
-      <c r="B10" s="12" t="s">
+      <c r="C8" s="7">
+        <v>44571</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="12.75">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="23.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="4"/>
-      <c r="B11" s="14" t="s">
+    <row r="11" spans="1:8" ht="15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="17">
-        <v>44482.0</v>
-      </c>
-      <c r="G11" s="17">
-        <v>44487.0</v>
-      </c>
-      <c r="H11" s="18">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4"/>
-      <c r="B12" s="19" t="s">
+      <c r="F11" s="13">
+        <v>44482</v>
+      </c>
+      <c r="G11" s="13">
+        <v>44487</v>
+      </c>
+      <c r="H11" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="17">
-        <v>44487.0</v>
-      </c>
-      <c r="G12" s="17">
-        <v>44494.0</v>
-      </c>
-      <c r="H12" s="18">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13" ht="20.25" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="14" t="s">
+      <c r="F12" s="13">
+        <v>44487</v>
+      </c>
+      <c r="G12" s="13">
+        <v>44494</v>
+      </c>
+      <c r="H12" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="17">
-        <v>44487.0</v>
-      </c>
-      <c r="G13" s="17">
-        <v>44494.0</v>
-      </c>
-      <c r="H13" s="18">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14" ht="17.25" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="14" t="s">
+      <c r="F13" s="13">
+        <v>44487</v>
+      </c>
+      <c r="G13" s="13">
+        <v>44494</v>
+      </c>
+      <c r="H13" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="17">
-        <v>44487.0</v>
-      </c>
-      <c r="G14" s="17">
-        <v>44494.0</v>
-      </c>
-      <c r="H14" s="18">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15" ht="17.25" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="21" t="s">
+      <c r="F14" s="13">
+        <v>44487</v>
+      </c>
+      <c r="G14" s="13">
+        <v>44494</v>
+      </c>
+      <c r="H14" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="17">
-        <v>44494.0</v>
-      </c>
-      <c r="G15" s="17">
-        <v>44470.0</v>
-      </c>
-      <c r="H15" s="18">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="4"/>
-      <c r="B16" s="14" t="s">
+      <c r="F15" s="13">
+        <v>44494</v>
+      </c>
+      <c r="G15" s="13">
+        <v>44470</v>
+      </c>
+      <c r="H15" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="17">
-        <v>44494.0</v>
-      </c>
-      <c r="G16" s="17">
-        <v>44470.0</v>
-      </c>
-      <c r="H16" s="18">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4"/>
-      <c r="B17" s="14" t="s">
+      <c r="F16" s="13">
+        <v>44494</v>
+      </c>
+      <c r="G16" s="13">
+        <v>44470</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="29.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="17">
-        <v>44494.0</v>
-      </c>
-      <c r="G17" s="17">
-        <v>44501.0</v>
-      </c>
-      <c r="H17" s="18">
+      <c r="F17" s="13">
+        <v>44494</v>
+      </c>
+      <c r="G17" s="13">
+        <v>44501</v>
+      </c>
+      <c r="H17" s="14">
         <v>0.5</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="4"/>
-      <c r="B18" s="14" t="s">
+    <row r="18" spans="1:8" ht="15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="17">
-        <v>44494.0</v>
-      </c>
-      <c r="G18" s="17">
-        <v>44501.0</v>
-      </c>
-      <c r="H18" s="18">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4"/>
-      <c r="B19" s="14" t="s">
+      <c r="F18" s="13">
+        <v>44494</v>
+      </c>
+      <c r="G18" s="13">
+        <v>44501</v>
+      </c>
+      <c r="H18" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="16" t="s">
+      <c r="D19" s="23"/>
+      <c r="E19" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="17">
-        <v>44501.0</v>
-      </c>
-      <c r="G19" s="17">
-        <v>44508.0</v>
-      </c>
-      <c r="H19" s="28">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4"/>
-      <c r="B20" s="29" t="s">
+      <c r="F19" s="13">
+        <v>44501</v>
+      </c>
+      <c r="G19" s="13">
+        <v>44508</v>
+      </c>
+      <c r="H19" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1"/>
+      <c r="B20" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="31">
-        <v>44482.0</v>
-      </c>
-      <c r="G20" s="31">
-        <v>44508.0</v>
-      </c>
-      <c r="H20" s="32"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="4"/>
-      <c r="B21" s="24" t="s">
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="27">
+        <v>44482</v>
+      </c>
+      <c r="G20" s="27">
+        <v>44508</v>
+      </c>
+      <c r="H20" s="28"/>
+    </row>
+    <row r="21" spans="1:8" ht="15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="17">
-        <v>44515.0</v>
-      </c>
-      <c r="G21" s="17">
-        <v>44522.0</v>
-      </c>
-      <c r="H21" s="28">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4"/>
-      <c r="B22" s="34" t="s">
+      <c r="F21" s="13">
+        <v>44515</v>
+      </c>
+      <c r="G21" s="13">
+        <v>44522</v>
+      </c>
+      <c r="H21" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="17">
-        <v>44522.0</v>
-      </c>
-      <c r="G22" s="17">
-        <v>44529.0</v>
-      </c>
-      <c r="H22" s="28">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="4"/>
-      <c r="B23" s="34" t="s">
+      <c r="F22" s="13">
+        <v>44522</v>
+      </c>
+      <c r="G22" s="13">
+        <v>44529</v>
+      </c>
+      <c r="H22" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F23" s="17">
-        <v>44522.0</v>
-      </c>
-      <c r="G23" s="17">
-        <v>44529.0</v>
-      </c>
-      <c r="H23" s="28">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="4"/>
-      <c r="B24" s="36" t="s">
+      <c r="F23" s="13">
+        <v>44522</v>
+      </c>
+      <c r="G23" s="13">
+        <v>44529</v>
+      </c>
+      <c r="H23" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="38" t="s">
+      <c r="E24" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="39">
-        <v>44494.0</v>
-      </c>
-      <c r="G24" s="17">
-        <v>44515.0</v>
-      </c>
-      <c r="H24" s="40">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="36" t="s">
+      <c r="F24" s="35">
+        <v>44494</v>
+      </c>
+      <c r="G24" s="13">
+        <v>44515</v>
+      </c>
+      <c r="H24" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="16" t="s">
+      <c r="D25" s="31"/>
+      <c r="E25" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="17">
-        <v>44529.0</v>
-      </c>
-      <c r="G25" s="17">
-        <v>44536.0</v>
-      </c>
-      <c r="H25" s="18">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="4"/>
-      <c r="B26" s="29" t="s">
+      <c r="F25" s="13">
+        <v>44529</v>
+      </c>
+      <c r="G25" s="13">
+        <v>44536</v>
+      </c>
+      <c r="H25" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1"/>
+      <c r="B26" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="41">
-        <v>44508.0</v>
-      </c>
-      <c r="G26" s="41">
-        <v>44536.0</v>
-      </c>
-      <c r="H26" s="32"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="4"/>
-      <c r="B27" s="34" t="s">
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="37">
+        <v>44508</v>
+      </c>
+      <c r="G26" s="37">
+        <v>44536</v>
+      </c>
+      <c r="H26" s="28"/>
+    </row>
+    <row r="27" spans="1:8" ht="15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="17">
-        <v>44536.0</v>
-      </c>
-      <c r="G27" s="17">
-        <v>44543.0</v>
-      </c>
-      <c r="H27" s="28">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="4"/>
-      <c r="B28" s="34" t="s">
+      <c r="F27" s="13">
+        <v>44536</v>
+      </c>
+      <c r="G27" s="13">
+        <v>44543</v>
+      </c>
+      <c r="H27" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15">
+      <c r="A28" s="1"/>
+      <c r="B28" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F28" s="17">
-        <v>44550.0</v>
-      </c>
-      <c r="G28" s="17">
-        <v>44557.0</v>
-      </c>
-      <c r="H28" s="28">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="4"/>
-      <c r="B29" s="34" t="s">
+      <c r="F28" s="13">
+        <v>44550</v>
+      </c>
+      <c r="G28" s="13">
+        <v>44557</v>
+      </c>
+      <c r="H28" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15">
+      <c r="A29" s="1"/>
+      <c r="B29" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="D29" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F29" s="17">
-        <v>44550.0</v>
-      </c>
-      <c r="G29" s="17">
-        <v>44557.0</v>
-      </c>
-      <c r="H29" s="28">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="4"/>
-      <c r="B30" s="36" t="s">
+      <c r="F29" s="13">
+        <v>44550</v>
+      </c>
+      <c r="G29" s="13">
+        <v>44557</v>
+      </c>
+      <c r="H29" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15">
+      <c r="A30" s="1"/>
+      <c r="B30" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="17">
-        <v>44564.0</v>
-      </c>
-      <c r="G30" s="17">
-        <v>44571.0</v>
-      </c>
-      <c r="H30" s="18">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="4"/>
-      <c r="B31" s="36" t="s">
+      <c r="F30" s="13">
+        <v>44564</v>
+      </c>
+      <c r="G30" s="13">
+        <v>44571</v>
+      </c>
+      <c r="H30" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15">
+      <c r="A31" s="1"/>
+      <c r="B31" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="36"/>
-      <c r="F31" s="43">
-        <v>44542.0</v>
-      </c>
-      <c r="G31" s="43">
-        <v>44543.0</v>
-      </c>
-      <c r="H31" s="18">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="23"/>
-      <c r="B32" s="44" t="s">
+      <c r="E31" s="32"/>
+      <c r="F31" s="39">
+        <v>44542</v>
+      </c>
+      <c r="G31" s="39">
+        <v>44543</v>
+      </c>
+      <c r="H31" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="19"/>
+      <c r="B32" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="46">
-        <v>44536.0</v>
-      </c>
-      <c r="G32" s="46">
-        <v>44574.0</v>
-      </c>
-      <c r="H32" s="47"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="48"/>
-    </row>
-    <row r="38">
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="52"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42">
+        <v>44536</v>
+      </c>
+      <c r="G32" s="42">
+        <v>44574</v>
+      </c>
+      <c r="H32" s="43"/>
+    </row>
+    <row r="33" spans="1:8" ht="12.75">
+      <c r="A33" s="44"/>
+    </row>
+    <row r="38" spans="1:8" ht="15">
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1495,8 +1505,8 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Desarrollo/DCS-CP.xlsx
+++ b/Desarrollo/DCS-CP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/953b61fab7c940fc/Escritorio/G6-DCS/Desarrollo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vlik3\OneDrive\Escritorio\G6-DCS\Desarrollo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_9F48A1863C09740F8ED119B4C452F0614A9C5C45" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8568313-277B-4914-89FD-E6BD402EEA2C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3222B9-5078-4DBB-BE57-3A156D3E92B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -313,7 +313,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -416,6 +416,11 @@
       <sz val="14"/>
       <color rgb="FF1155CC"/>
       <name val="&quot;Bebas Neue&quot;, Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -591,9 +596,6 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="15" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -624,6 +626,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -844,8 +849,8 @@
   </sheetPr>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -856,23 +861,23 @@
     <col min="8" max="8" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:8" ht="27.75">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="51"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:8" ht="18">
       <c r="A2" s="1"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1305,13 +1310,13 @@
       <c r="E24" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="35">
-        <v>44494</v>
-      </c>
-      <c r="G24" s="13">
+      <c r="F24" s="13">
         <v>44515</v>
       </c>
-      <c r="H24" s="36">
+      <c r="G24" s="35">
+        <v>44529</v>
+      </c>
+      <c r="H24" s="52">
         <v>0</v>
       </c>
     </row>
@@ -1345,10 +1350,10 @@
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
-      <c r="F26" s="37">
+      <c r="F26" s="36">
         <v>44508</v>
       </c>
-      <c r="G26" s="37">
+      <c r="G26" s="36">
         <v>44536</v>
       </c>
       <c r="H26" s="28"/>
@@ -1361,7 +1366,7 @@
       <c r="C27" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="37" t="s">
         <v>71</v>
       </c>
       <c r="E27" s="12" t="s">
@@ -1385,7 +1390,7 @@
       <c r="C28" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="37" t="s">
         <v>74</v>
       </c>
       <c r="E28" s="12" t="s">
@@ -1409,7 +1414,7 @@
       <c r="C29" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="37" t="s">
         <v>78</v>
       </c>
       <c r="E29" s="12" t="s">
@@ -1433,7 +1438,7 @@
       <c r="C30" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="38" t="s">
+      <c r="D30" s="37" t="s">
         <v>81</v>
       </c>
       <c r="E30" s="12" t="s">
@@ -1457,14 +1462,14 @@
       <c r="C31" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="37" t="s">
         <v>84</v>
       </c>
       <c r="E31" s="32"/>
-      <c r="F31" s="39">
+      <c r="F31" s="38">
         <v>44542</v>
       </c>
-      <c r="G31" s="39">
+      <c r="G31" s="38">
         <v>44543</v>
       </c>
       <c r="H31" s="14">
@@ -1473,31 +1478,31 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="19"/>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="42">
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="41">
         <v>44536</v>
       </c>
-      <c r="G32" s="42">
+      <c r="G32" s="41">
         <v>44574</v>
       </c>
-      <c r="H32" s="43"/>
+      <c r="H32" s="42"/>
     </row>
     <row r="33" spans="1:8" ht="12.75">
-      <c r="A33" s="44"/>
+      <c r="A33" s="43"/>
     </row>
     <row r="38" spans="1:8" ht="15">
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="48"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1508,5 +1513,6 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>